--- a/cb4_data/cb2cb3cb4_BBBdata.xlsx
+++ b/cb4_data/cb2cb3cb4_BBBdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinkoma/Documents/lab_projects/cb4_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B63D98-65F2-A040-A901-ACB9DE089A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0017F-54A5-3B43-8AD5-F314E3F3FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="1060" windowWidth="13660" windowHeight="15820" xr2:uid="{28A7E9FC-48FE-9646-9CCA-272B395CADFE}"/>
+    <workbookView xWindow="5040" yWindow="1020" windowWidth="21660" windowHeight="15820" xr2:uid="{28A7E9FC-48FE-9646-9CCA-272B395CADFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="17">
   <si>
     <t>week</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>week9</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +176,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD6A76C-B12A-6C41-9E8B-E44927F373DA}">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,16 +808,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>224</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -851,16 +860,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>406</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
         <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -905,16 +914,16 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>504</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8">
         <v>21</v>
       </c>
       <c r="E15" s="1"/>
@@ -959,16 +968,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>521</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8">
         <v>21</v>
       </c>
       <c r="E17" s="1"/>
@@ -986,16 +995,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>523</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
         <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1012,16 +1021,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>524</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1064,16 +1073,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>527</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8">
         <v>21</v>
       </c>
       <c r="F21" s="1"/>
@@ -1183,6 +1192,9 @@
       </c>
       <c r="D25" s="1">
         <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
@@ -2014,7 +2026,7 @@
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>527</v>
       </c>
       <c r="C83" s="5" t="s">
